--- a/output/correspondence_table.xlsx
+++ b/output/correspondence_table.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/cijensen_calpoly_edu/Documents/MSQE/GSE_580/GSE-580-project/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/cijensen_calpoly_edu/Documents/MSQE/GSE_580/GSE-580-project/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_74E99B5247693C0F62355476585DCE3A87450EC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7E343B9-BCAC-49FA-8854-9258F09FB7CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_28512130C45EE80F62355476585DCE3A8745DB7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="649">
   <si>
     <t>version_4</t>
   </si>
@@ -539,6 +526,12 @@
     <t>2430</t>
   </si>
   <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>2423</t>
+  </si>
+  <si>
     <t>2211</t>
   </si>
   <si>
@@ -905,9 +898,6 @@
     <t>3250</t>
   </si>
   <si>
-    <t>2423</t>
-  </si>
-  <si>
     <t>3290</t>
   </si>
   <si>
@@ -1277,18 +1267,15 @@
     <t>5022</t>
   </si>
   <si>
-    <t>0.75</t>
+    <t>6210</t>
+  </si>
+  <si>
+    <t>6220</t>
   </si>
   <si>
     <t>5120</t>
   </si>
   <si>
-    <t>6210</t>
-  </si>
-  <si>
-    <t>6220</t>
-  </si>
-  <si>
     <t>5210</t>
   </si>
   <si>
@@ -1848,6 +1835,9 @@
   </si>
   <si>
     <t>8810</t>
+  </si>
+  <si>
+    <t>8890</t>
   </si>
   <si>
     <t>9101</t>
@@ -2339,17 +2329,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D723"/>
+  <dimension ref="A1:D728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="E252" sqref="E252"/>
+    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
+      <selection activeCell="B687" sqref="B687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -2401,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -2415,7 +2401,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2471,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -2485,7 +2471,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -2625,7 +2611,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2639,7 +2625,7 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2667,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2681,7 +2667,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2695,7 +2681,7 @@
         <v>19</v>
       </c>
       <c r="D25">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2863,7 +2849,7 @@
         <v>30</v>
       </c>
       <c r="D37">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2877,7 +2863,7 @@
         <v>32</v>
       </c>
       <c r="D38">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2891,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2905,7 +2891,7 @@
         <v>30</v>
       </c>
       <c r="D40">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -3059,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="D51">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -3073,7 +3059,7 @@
         <v>44</v>
       </c>
       <c r="D52">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -3213,7 +3199,7 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -3227,7 +3213,7 @@
         <v>61</v>
       </c>
       <c r="D63">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -3339,7 +3325,7 @@
         <v>47</v>
       </c>
       <c r="D71">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -3353,7 +3339,7 @@
         <v>49</v>
       </c>
       <c r="D72">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -3367,7 +3353,7 @@
         <v>65</v>
       </c>
       <c r="D73">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -3381,7 +3367,7 @@
         <v>56</v>
       </c>
       <c r="D74">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -3395,7 +3381,7 @@
         <v>54</v>
       </c>
       <c r="D75">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -3409,7 +3395,7 @@
         <v>58</v>
       </c>
       <c r="D76">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -3423,7 +3409,7 @@
         <v>60</v>
       </c>
       <c r="D77">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -3437,7 +3423,7 @@
         <v>63</v>
       </c>
       <c r="D78">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -3451,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="D79">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -3465,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="D80">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -3479,7 +3465,7 @@
         <v>73</v>
       </c>
       <c r="D81">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -3493,7 +3479,7 @@
         <v>71</v>
       </c>
       <c r="D82">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -3619,7 +3605,7 @@
         <v>87</v>
       </c>
       <c r="D91">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -3633,7 +3619,7 @@
         <v>77</v>
       </c>
       <c r="D92">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -3913,7 +3899,7 @@
         <v>113</v>
       </c>
       <c r="D112">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -3927,7 +3913,7 @@
         <v>114</v>
       </c>
       <c r="D113">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -3941,7 +3927,7 @@
         <v>115</v>
       </c>
       <c r="D114">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -4025,7 +4011,7 @@
         <v>114</v>
       </c>
       <c r="D120">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -4039,7 +4025,7 @@
         <v>126</v>
       </c>
       <c r="D121">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -4081,7 +4067,7 @@
         <v>128</v>
       </c>
       <c r="D124">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -4095,7 +4081,7 @@
         <v>129</v>
       </c>
       <c r="D125">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -4109,7 +4095,7 @@
         <v>130</v>
       </c>
       <c r="D126">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -4123,7 +4109,7 @@
         <v>131</v>
       </c>
       <c r="D127">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -4221,7 +4207,7 @@
         <v>131</v>
       </c>
       <c r="D134">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -4235,7 +4221,7 @@
         <v>141</v>
       </c>
       <c r="D135">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -4249,7 +4235,7 @@
         <v>126</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -4319,7 +4305,7 @@
         <v>148</v>
       </c>
       <c r="D141">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -4333,7 +4319,7 @@
         <v>126</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -4347,7 +4333,7 @@
         <v>147</v>
       </c>
       <c r="D143">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -4361,7 +4347,7 @@
         <v>148</v>
       </c>
       <c r="D144">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -4375,7 +4361,7 @@
         <v>32</v>
       </c>
       <c r="D145">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -4417,7 +4403,7 @@
         <v>154</v>
       </c>
       <c r="D148">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -4431,7 +4417,7 @@
         <v>155</v>
       </c>
       <c r="D149">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -4445,7 +4431,7 @@
         <v>47</v>
       </c>
       <c r="D150">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -4459,7 +4445,7 @@
         <v>49</v>
       </c>
       <c r="D151">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -4473,7 +4459,7 @@
         <v>156</v>
       </c>
       <c r="D152">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -4613,7 +4599,7 @@
         <v>96</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -4627,7 +4613,7 @@
         <v>126</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -4652,10 +4638,10 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -4663,13 +4649,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D166">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -4683,7 +4669,7 @@
         <v>171</v>
       </c>
       <c r="D167">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -4691,13 +4677,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="D168">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -4705,13 +4691,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D169">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -4719,13 +4705,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="D170">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -4733,13 +4719,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D171">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -4747,13 +4733,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="D172">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -4761,13 +4747,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D173">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -4775,13 +4761,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" t="s">
         <v>173</v>
       </c>
-      <c r="C174" t="s">
-        <v>172</v>
-      </c>
       <c r="D174">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -4789,13 +4775,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D175">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -4803,13 +4789,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -4817,13 +4803,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C177" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -4831,13 +4817,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D178">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -4848,10 +4834,10 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D179">
-        <v>0.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -4859,13 +4845,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
         <v>181</v>
       </c>
-      <c r="C180" t="s">
-        <v>179</v>
-      </c>
       <c r="D180">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -4873,13 +4859,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
         <v>182</v>
       </c>
-      <c r="C181" t="s">
-        <v>183</v>
-      </c>
       <c r="D181">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -4887,10 +4873,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -4901,10 +4887,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -4915,10 +4901,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -4929,10 +4915,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185" t="s">
         <v>189</v>
-      </c>
-      <c r="C185" t="s">
-        <v>190</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -4943,13 +4929,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="D186">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -4963,7 +4949,7 @@
         <v>192</v>
       </c>
       <c r="D187">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -4974,10 +4960,10 @@
         <v>193</v>
       </c>
       <c r="C188" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="D188">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -4991,7 +4977,7 @@
         <v>194</v>
       </c>
       <c r="D189">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -5002,10 +4988,10 @@
         <v>195</v>
       </c>
       <c r="C190" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -5013,13 +4999,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -5027,10 +5013,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192" t="s">
         <v>198</v>
-      </c>
-      <c r="C192" t="s">
-        <v>199</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5041,10 +5027,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C193" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5055,10 +5041,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5069,10 +5055,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
+        <v>202</v>
+      </c>
+      <c r="C195" t="s">
         <v>203</v>
-      </c>
-      <c r="C195" t="s">
-        <v>204</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -5083,10 +5069,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="C196" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -5097,13 +5083,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
+        <v>205</v>
+      </c>
+      <c r="C197" t="s">
         <v>206</v>
       </c>
-      <c r="C197" t="s">
-        <v>207</v>
-      </c>
       <c r="D197">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -5111,13 +5097,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C198" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="D198">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -5125,13 +5111,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
+        <v>208</v>
+      </c>
+      <c r="C199" t="s">
         <v>209</v>
       </c>
-      <c r="C199" t="s">
-        <v>210</v>
-      </c>
       <c r="D199">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -5139,13 +5125,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D200">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -5153,13 +5139,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C201" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="D201">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -5167,13 +5153,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C202" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="D202">
-        <v>5.8823529411764712E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -5181,13 +5167,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C203" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="D203">
-        <v>5.8823529411764712E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -5195,13 +5181,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C204" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="D204">
-        <v>5.8823529411764712E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -5209,13 +5195,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C205" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="D205">
-        <v>5.8823529411764712E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -5223,13 +5209,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C206" t="s">
         <v>214</v>
       </c>
       <c r="D206">
-        <v>5.8823529411764712E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -5237,13 +5223,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C207" t="s">
         <v>215</v>
       </c>
       <c r="D207">
-        <v>5.8823529411764712E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -5251,13 +5237,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C208" t="s">
         <v>216</v>
       </c>
       <c r="D208">
-        <v>0.58823529411764697</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -5265,13 +5251,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C209" t="s">
         <v>217</v>
       </c>
       <c r="D209">
-        <v>5.8823529411764712E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -5279,13 +5265,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
+        <v>177</v>
+      </c>
+      <c r="C210" t="s">
         <v>218</v>
       </c>
-      <c r="C210" t="s">
-        <v>212</v>
-      </c>
       <c r="D210">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -5293,13 +5279,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
+        <v>177</v>
+      </c>
+      <c r="C211" t="s">
         <v>219</v>
       </c>
-      <c r="C211" t="s">
-        <v>211</v>
-      </c>
       <c r="D211">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -5307,13 +5293,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C212" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D212">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -5321,13 +5307,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C213" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D213">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -5338,10 +5324,10 @@
         <v>221</v>
       </c>
       <c r="C214" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D214">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -5352,7 +5338,7 @@
         <v>221</v>
       </c>
       <c r="C215" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D215">
         <v>0.2</v>
@@ -5366,10 +5352,10 @@
         <v>223</v>
       </c>
       <c r="C216" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D216">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -5380,7 +5366,7 @@
         <v>223</v>
       </c>
       <c r="C217" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D217">
         <v>0.25</v>
@@ -5391,10 +5377,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C218" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D218">
         <v>0.25</v>
@@ -5405,10 +5391,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C219" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D219">
         <v>0.25</v>
@@ -5419,13 +5405,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
+        <v>225</v>
+      </c>
+      <c r="C220" t="s">
         <v>226</v>
       </c>
-      <c r="C220" t="s">
-        <v>227</v>
-      </c>
       <c r="D220">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -5433,13 +5419,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C221" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -5447,13 +5433,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C222" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D222">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -5464,10 +5450,10 @@
         <v>230</v>
       </c>
       <c r="C223" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D223">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -5475,13 +5461,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C224" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D224">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -5492,10 +5478,10 @@
         <v>232</v>
       </c>
       <c r="C225" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -5503,13 +5489,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="C226" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="D226">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -5517,13 +5503,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="C227" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="D227">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -5534,10 +5520,10 @@
         <v>192</v>
       </c>
       <c r="C228" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -5545,13 +5531,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C229" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D229">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -5562,10 +5548,10 @@
         <v>194</v>
       </c>
       <c r="C230" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D230">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -5576,10 +5562,10 @@
         <v>196</v>
       </c>
       <c r="C231" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -5587,10 +5573,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="C232" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="D232">
         <v>0.25</v>
@@ -5601,13 +5587,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="C233" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D233">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -5615,10 +5601,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="D234">
         <v>0.25</v>
@@ -5629,13 +5615,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D235">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -5643,13 +5629,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C236" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D236">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -5663,7 +5649,7 @@
         <v>238</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -5671,13 +5657,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C238" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="D238">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -5688,10 +5674,10 @@
         <v>239</v>
       </c>
       <c r="C239" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="D239">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -5699,13 +5685,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="D240">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -5713,10 +5699,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C241" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D241">
         <v>0.1</v>
@@ -5727,13 +5713,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C242" t="s">
         <v>215</v>
       </c>
       <c r="D242">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -5741,13 +5727,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D243">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -5755,10 +5741,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C244" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D244">
         <v>0.1</v>
@@ -5769,10 +5755,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C245" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D245">
         <v>0.1</v>
@@ -5783,13 +5769,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C246" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="D246">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -5797,13 +5783,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C247" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D247">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -5811,13 +5797,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C248" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="D248">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -5825,13 +5811,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C249" t="s">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="D249">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -5839,13 +5825,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C250" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D250">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -5853,13 +5839,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C251" t="s">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="D251">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -5870,10 +5856,10 @@
         <v>199</v>
       </c>
       <c r="C252" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="D252">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -5884,10 +5870,10 @@
         <v>199</v>
       </c>
       <c r="C253" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D253">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -5895,10 +5881,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C254" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="D254">
         <v>0.25</v>
@@ -5912,10 +5898,10 @@
         <v>201</v>
       </c>
       <c r="C255" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -5923,13 +5909,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="C256" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -5937,13 +5923,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C257" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D257">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -5951,13 +5937,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
+        <v>248</v>
+      </c>
+      <c r="C258" t="s">
         <v>247</v>
       </c>
-      <c r="C258" t="s">
-        <v>238</v>
-      </c>
       <c r="D258">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -5971,7 +5957,7 @@
         <v>250</v>
       </c>
       <c r="D259">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -5982,10 +5968,10 @@
         <v>249</v>
       </c>
       <c r="C260" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D260">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -5993,13 +5979,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
+        <v>251</v>
+      </c>
+      <c r="C261" t="s">
         <v>252</v>
       </c>
-      <c r="C261" t="s">
-        <v>96</v>
-      </c>
       <c r="D261">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -6007,13 +5993,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C262" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="D262">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -6021,13 +6007,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C263" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="D263">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -6035,13 +6021,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C264" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D264">
-        <v>0.1</v>
+        <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -6049,13 +6035,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C265" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="D265">
-        <v>0.1</v>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -6063,13 +6049,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C266" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -6080,10 +6066,10 @@
         <v>254</v>
       </c>
       <c r="C267" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="D267">
-        <v>0.6</v>
+        <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -6091,13 +6077,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C268" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D268">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -6105,13 +6091,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C269" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="D269">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -6119,13 +6105,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C270" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D270">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -6136,10 +6122,10 @@
         <v>256</v>
       </c>
       <c r="C271" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -6147,13 +6133,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C272" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D272">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -6164,10 +6150,10 @@
         <v>258</v>
       </c>
       <c r="C273" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="D273">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -6175,13 +6161,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C274" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -6189,13 +6175,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C275" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -6203,10 +6189,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C276" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -6217,13 +6203,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C277" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D277">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -6234,10 +6220,10 @@
         <v>265</v>
       </c>
       <c r="C278" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="D278">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -6251,7 +6237,7 @@
         <v>268</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -6259,13 +6245,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C280" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -6273,13 +6259,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="C281" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="D281">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -6287,13 +6273,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C282" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="D282">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -6301,13 +6287,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C283" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="D283">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -6315,13 +6301,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C284" t="s">
-        <v>272</v>
+        <v>120</v>
       </c>
       <c r="D284">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -6329,10 +6315,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C285" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D285">
         <v>0.1</v>
@@ -6349,7 +6335,7 @@
         <v>274</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -6357,13 +6343,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C287" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="D287">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -6377,7 +6363,7 @@
         <v>276</v>
       </c>
       <c r="D288">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -6385,10 +6371,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C289" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="D289">
         <v>0.1</v>
@@ -6402,10 +6388,10 @@
         <v>277</v>
       </c>
       <c r="C290" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="D290">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -6416,10 +6402,10 @@
         <v>277</v>
       </c>
       <c r="C291" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="D291">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -6427,10 +6413,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C292" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="D292">
         <v>0.05</v>
@@ -6441,13 +6427,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C293" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -6458,10 +6444,10 @@
         <v>279</v>
       </c>
       <c r="C294" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -6472,10 +6458,10 @@
         <v>280</v>
       </c>
       <c r="C295" t="s">
-        <v>281</v>
+        <v>204</v>
       </c>
       <c r="D295">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -6483,13 +6469,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C296" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="D296">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -6500,10 +6486,10 @@
         <v>282</v>
       </c>
       <c r="C297" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -6514,10 +6500,10 @@
         <v>282</v>
       </c>
       <c r="C298" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -6525,13 +6511,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C299" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D299">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -6539,13 +6525,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C300" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="D300">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -6556,7 +6542,7 @@
         <v>285</v>
       </c>
       <c r="C301" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D301">
         <v>0.25</v>
@@ -6570,7 +6556,7 @@
         <v>285</v>
       </c>
       <c r="C302" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="D302">
         <v>0.75</v>
@@ -6581,13 +6567,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="C303" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -6595,13 +6581,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="C304" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D304">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -6609,13 +6595,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C305" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D305">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -6623,13 +6609,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="C306" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="D306">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -6637,13 +6623,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
+        <v>219</v>
+      </c>
+      <c r="C307" t="s">
         <v>289</v>
       </c>
-      <c r="C307" t="s">
-        <v>119</v>
-      </c>
       <c r="D307">
-        <v>4.5454545454545463E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -6651,13 +6637,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C308" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="D308">
-        <v>4.5454545454545463E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -6665,13 +6651,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C309" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="D309">
-        <v>9.0909090909090925E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -6679,13 +6665,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C310" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="D310">
-        <v>0.63636363636363635</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -6693,13 +6679,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C311" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="D311">
-        <v>9.0909090909090925E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -6707,13 +6693,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C312" t="s">
         <v>231</v>
       </c>
       <c r="D312">
-        <v>9.0909090909090925E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -6724,7 +6710,7 @@
         <v>291</v>
       </c>
       <c r="C313" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="D313">
         <v>0.1</v>
@@ -6738,10 +6724,10 @@
         <v>291</v>
       </c>
       <c r="C314" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="D314">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -6749,10 +6735,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C315" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D315">
         <v>0.05</v>
@@ -6763,10 +6749,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C316" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="D316">
         <v>0.05</v>
@@ -6777,13 +6763,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C317" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="D317">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -6791,13 +6777,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C318" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D318">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -6805,10 +6791,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C319" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D319">
         <v>0.05</v>
@@ -6819,13 +6805,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C320" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="D320">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -6833,13 +6819,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C321" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="D321">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -6847,13 +6833,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C322" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="D322">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -6861,10 +6847,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C323" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="D323">
         <v>0.1</v>
@@ -6875,13 +6861,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="C324" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="D324">
-        <v>0.22727272727272729</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -6889,13 +6875,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="C325" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="D325">
-        <v>0.22727272727272729</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -6903,13 +6889,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C326" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D326">
-        <v>9.0909090909090912E-2</v>
+        <v>0.34782608695652167</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -6917,13 +6903,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C327" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="D327">
-        <v>9.0909090909090912E-2</v>
+        <v>0.17391304347826089</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -6931,13 +6917,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C328" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D328">
-        <v>9.0909090909090912E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -6945,13 +6931,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C329" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="D329">
-        <v>9.0909090909090912E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -6959,13 +6945,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C330" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D330">
-        <v>4.5454545454545463E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -6973,13 +6959,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C331" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D331">
-        <v>4.5454545454545463E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -6987,13 +6973,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C332" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="D332">
-        <v>9.0909090909090912E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -7001,13 +6987,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C333" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="D333">
-        <v>9.5238095238095233E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -7015,13 +7001,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C334" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="D334">
-        <v>4.7619047619047623E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -7029,13 +7015,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C335" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D335">
-        <v>4.7619047619047623E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -7043,13 +7029,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C336" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D336">
-        <v>4.7619047619047623E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -7057,13 +7043,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C337" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D337">
-        <v>4.7619047619047623E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -7071,13 +7057,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C338" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D338">
-        <v>9.5238095238095233E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -7085,13 +7071,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C339" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D339">
-        <v>4.7619047619047623E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -7099,13 +7085,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C340" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D340">
-        <v>4.7619047619047623E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -7113,13 +7099,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C341" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D341">
-        <v>4.7619047619047623E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -7127,13 +7113,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C342" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D342">
-        <v>4.7619047619047623E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -7141,13 +7127,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C343" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D343">
-        <v>4.7619047619047623E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -7155,13 +7141,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C344" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D344">
-        <v>4.7619047619047623E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -7169,13 +7155,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C345" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="D345">
-        <v>4.7619047619047623E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -7183,13 +7169,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C346" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="D346">
-        <v>4.7619047619047623E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -7197,13 +7183,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C347" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D347">
-        <v>4.7619047619047623E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -7211,13 +7197,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C348" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="D348">
-        <v>4.7619047619047623E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -7225,13 +7211,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C349" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D349">
-        <v>4.7619047619047623E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -7239,13 +7225,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C350" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="D350">
-        <v>4.7619047619047623E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -7253,13 +7239,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
+        <v>226</v>
+      </c>
+      <c r="C351" t="s">
         <v>224</v>
       </c>
-      <c r="C351" t="s">
-        <v>292</v>
-      </c>
       <c r="D351">
-        <v>4.7619047619047623E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -7267,13 +7253,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C352" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="D352">
-        <v>7.8947368421052627E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -7281,13 +7267,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C353" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="D353">
-        <v>5.2631578947368432E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
@@ -7295,13 +7281,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C354" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D354">
-        <v>7.8947368421052627E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
@@ -7309,13 +7295,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C355" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D355">
-        <v>7.8947368421052627E-2</v>
+        <v>5.5555555555555559E-2</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
@@ -7323,13 +7309,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C356" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D356">
-        <v>7.8947368421052627E-2</v>
+        <v>5.5555555555555559E-2</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
@@ -7337,13 +7323,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C357" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D357">
-        <v>0.52631578947368418</v>
+        <v>5.5555555555555559E-2</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
@@ -7351,13 +7337,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C358" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D358">
-        <v>5.2631578947368432E-2</v>
+        <v>5.5555555555555559E-2</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -7365,13 +7351,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C359" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="D359">
-        <v>5.2631578947368432E-2</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -7379,13 +7365,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="C360" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="D360">
-        <v>0.05</v>
+        <v>5.5555555555555559E-2</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -7393,13 +7379,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
+        <v>227</v>
+      </c>
+      <c r="C361" t="s">
         <v>294</v>
       </c>
-      <c r="C361" t="s">
-        <v>240</v>
-      </c>
       <c r="D361">
-        <v>0.05</v>
+        <v>5.5555555555555559E-2</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -7407,10 +7393,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C362" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D362">
         <v>0.05</v>
@@ -7421,13 +7407,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C363" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="D363">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -7435,13 +7421,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C364" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D364">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -7449,13 +7435,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C365" t="s">
         <v>215</v>
       </c>
       <c r="D365">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -7463,13 +7449,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C366" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D366">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -7477,13 +7463,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C367" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D367">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -7491,13 +7477,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C368" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="D368">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -7505,13 +7491,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C369" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D369">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -7522,10 +7508,10 @@
         <v>295</v>
       </c>
       <c r="C370" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="D370">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -7536,7 +7522,7 @@
         <v>295</v>
       </c>
       <c r="C371" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="D371">
         <v>0.1</v>
@@ -7547,13 +7533,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C372" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D372">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -7561,13 +7547,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C373" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="D373">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -7575,13 +7561,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C374" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D374">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -7589,13 +7575,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C375" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="D375">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -7603,13 +7589,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C376" t="s">
-        <v>119</v>
+        <v>253</v>
       </c>
       <c r="D376">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -7617,13 +7603,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
+        <v>296</v>
+      </c>
+      <c r="C377" t="s">
         <v>297</v>
       </c>
-      <c r="C377" t="s">
-        <v>124</v>
-      </c>
       <c r="D377">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -7631,13 +7617,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C378" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D378">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -7645,10 +7631,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C379" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D379">
         <v>0.01</v>
@@ -7659,13 +7645,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C380" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="D380">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -7673,13 +7659,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C381" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="D381">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -7687,10 +7673,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C382" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D382">
         <v>0.02</v>
@@ -7701,13 +7687,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C383" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="D383">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -7715,13 +7701,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C384" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="D384">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -7729,13 +7715,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C385" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="D385">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -7743,13 +7729,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C386" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D386">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -7757,13 +7743,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C387" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="D387">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -7771,13 +7757,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C388" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D388">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -7785,13 +7771,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="C389" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="D389">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -7799,13 +7785,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="C390" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D390">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -7813,13 +7799,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C391" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D391">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -7827,13 +7813,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C392" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D392">
-        <v>0.05</v>
+        <v>7.9999999999999988E-2</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -7841,13 +7827,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C393" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D393">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -7855,13 +7841,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C394" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D394">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -7869,13 +7855,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C395" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D395">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -7883,13 +7869,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C396" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D396">
-        <v>0.05</v>
+        <v>7.9999999999999988E-2</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -7897,13 +7883,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C397" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D397">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -7911,13 +7897,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C398" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D398">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -7925,13 +7911,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C399" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D399">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -7939,13 +7925,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C400" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D400">
-        <v>0.05</v>
+        <v>7.9999999999999988E-2</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -7953,13 +7939,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C401" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="D401">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -7967,13 +7953,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C402" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="D402">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -7981,13 +7967,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C403" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D403">
-        <v>0.05</v>
+        <v>7.9999999999999988E-2</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -7995,13 +7981,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C404" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D404">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -8009,13 +7995,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C405" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D405">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -8023,13 +8009,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C406" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D406">
-        <v>0.05</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -8037,13 +8023,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
+        <v>233</v>
+      </c>
+      <c r="C407" t="s">
         <v>231</v>
       </c>
-      <c r="C407" t="s">
-        <v>298</v>
-      </c>
       <c r="D407">
-        <v>0.05</v>
+        <v>7.9999999999999988E-2</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
@@ -8051,13 +8037,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="C408" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="D408">
-        <v>1</v>
+        <v>7.9999999999999988E-2</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
@@ -8065,13 +8051,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="C409" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D409">
-        <v>1</v>
+        <v>3.9999999999999987E-2</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
@@ -8079,13 +8065,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="C410" t="s">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="D410">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
@@ -8093,13 +8079,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="C411" t="s">
         <v>302</v>
       </c>
       <c r="D411">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
@@ -8107,13 +8093,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="C412" t="s">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="D412">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
@@ -8121,13 +8107,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="C413" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D413">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
@@ -8135,10 +8121,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C414" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -8149,13 +8135,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C415" t="s">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="D415">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
@@ -8166,10 +8152,10 @@
         <v>308</v>
       </c>
       <c r="C416" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D416">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
@@ -8180,7 +8166,7 @@
         <v>309</v>
       </c>
       <c r="C417" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D417">
         <v>0.1</v>
@@ -8194,7 +8180,7 @@
         <v>309</v>
       </c>
       <c r="C418" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D418">
         <v>0.9</v>
@@ -8208,10 +8194,10 @@
         <v>310</v>
       </c>
       <c r="C419" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D419">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
@@ -8222,10 +8208,10 @@
         <v>310</v>
       </c>
       <c r="C420" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D420">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
@@ -8236,10 +8222,10 @@
         <v>311</v>
       </c>
       <c r="C421" t="s">
-        <v>312</v>
+        <v>158</v>
       </c>
       <c r="D421">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
@@ -8250,10 +8236,10 @@
         <v>311</v>
       </c>
       <c r="C422" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D422">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
@@ -8261,10 +8247,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C423" t="s">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="D423">
         <v>0.5</v>
@@ -8275,10 +8261,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
+        <v>312</v>
+      </c>
+      <c r="C424" t="s">
         <v>314</v>
-      </c>
-      <c r="C424" t="s">
-        <v>306</v>
       </c>
       <c r="D424">
         <v>0.5</v>
@@ -8289,13 +8275,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C425" t="s">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="D425">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
@@ -8303,13 +8289,13 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C426" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D426">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
@@ -8317,10 +8303,10 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C427" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -8331,10 +8317,10 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C428" t="s">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -8345,13 +8331,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C429" t="s">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="D429">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
@@ -8362,10 +8348,10 @@
         <v>319</v>
       </c>
       <c r="C430" t="s">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="D430">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
@@ -8373,13 +8359,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C431" t="s">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
@@ -8387,13 +8373,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C432" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D432">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
@@ -8401,13 +8387,13 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C433" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D433">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
@@ -8418,10 +8404,10 @@
         <v>324</v>
       </c>
       <c r="C434" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="D434">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.35">
@@ -8432,10 +8418,10 @@
         <v>325</v>
       </c>
       <c r="C435" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D435">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
@@ -8446,10 +8432,10 @@
         <v>325</v>
       </c>
       <c r="C436" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D436">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
@@ -8460,10 +8446,10 @@
         <v>326</v>
       </c>
       <c r="C437" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D437">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.35">
@@ -8474,10 +8460,10 @@
         <v>326</v>
       </c>
       <c r="C438" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="D438">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
@@ -8485,13 +8471,13 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C439" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D439">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
@@ -8499,10 +8485,10 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C440" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D440">
         <v>0.2</v>
@@ -8513,13 +8499,13 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="C441" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="D441">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
@@ -8527,13 +8513,13 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C442" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D442">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
@@ -8541,10 +8527,10 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="C443" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -8555,10 +8541,10 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C444" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -8569,10 +8555,10 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C445" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D445">
         <v>1</v>
@@ -8583,10 +8569,10 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="C446" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D446">
         <v>1</v>
@@ -8597,10 +8583,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C447" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D447">
         <v>1</v>
@@ -8611,10 +8597,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C448" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -8625,10 +8611,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C449" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -8639,10 +8625,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C450" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D450">
         <v>1</v>
@@ -8653,10 +8639,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C451" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D451">
         <v>1</v>
@@ -8667,10 +8653,10 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C452" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -8681,10 +8667,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C453" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D453">
         <v>1</v>
@@ -8695,10 +8681,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C454" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D454">
         <v>1</v>
@@ -8709,10 +8695,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C455" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D455">
         <v>1</v>
@@ -8723,13 +8709,13 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C456" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D456">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
@@ -8737,13 +8723,13 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
+        <v>351</v>
+      </c>
+      <c r="C457" t="s">
         <v>352</v>
       </c>
-      <c r="C457" t="s">
-        <v>353</v>
-      </c>
       <c r="D457">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
@@ -8751,13 +8737,13 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C458" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.35">
@@ -8765,13 +8751,13 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C459" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D459">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
@@ -8779,10 +8765,10 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C460" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D460">
         <v>1</v>
@@ -8793,10 +8779,10 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C461" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D461">
         <v>1</v>
@@ -8807,10 +8793,10 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C462" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D462">
         <v>1</v>
@@ -8821,10 +8807,10 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C463" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D463">
         <v>1</v>
@@ -8835,10 +8821,10 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C464" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D464">
         <v>1</v>
@@ -8849,10 +8835,10 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C465" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D465">
         <v>1</v>
@@ -8863,10 +8849,10 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C466" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -8877,10 +8863,10 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C467" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D467">
         <v>1</v>
@@ -8891,10 +8877,10 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C468" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -8905,10 +8891,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C469" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D469">
         <v>1</v>
@@ -8919,13 +8905,13 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C470" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D470">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.35">
@@ -8933,13 +8919,13 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
+        <v>375</v>
+      </c>
+      <c r="C471" t="s">
         <v>376</v>
       </c>
-      <c r="C471" t="s">
-        <v>369</v>
-      </c>
       <c r="D471">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.35">
@@ -8950,10 +8936,10 @@
         <v>377</v>
       </c>
       <c r="C472" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D472">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
@@ -8961,13 +8947,13 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C473" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D473">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.35">
@@ -8975,10 +8961,10 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C474" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D474">
         <v>1</v>
@@ -8989,10 +8975,10 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C475" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D475">
         <v>1</v>
@@ -9003,10 +8989,10 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C476" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -9017,10 +9003,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C477" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -9031,10 +9017,10 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C478" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -9045,10 +9031,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C479" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -9059,10 +9045,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C480" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -9073,10 +9059,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C481" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="D481">
         <v>1</v>
@@ -9087,10 +9073,10 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C482" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D482">
         <v>1</v>
@@ -9101,10 +9087,10 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C483" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D483">
         <v>1</v>
@@ -9115,13 +9101,13 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C484" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D484">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
@@ -9132,10 +9118,10 @@
         <v>392</v>
       </c>
       <c r="C485" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D485">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.35">
@@ -9143,13 +9129,13 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C486" t="s">
         <v>394</v>
       </c>
       <c r="D486">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.35">
@@ -9157,13 +9143,13 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C487" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D487">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
@@ -9171,10 +9157,10 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C488" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -9185,10 +9171,10 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C489" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -9199,13 +9185,13 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C490" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D490">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
@@ -9213,13 +9199,13 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
+        <v>400</v>
+      </c>
+      <c r="C491" t="s">
         <v>401</v>
       </c>
-      <c r="C491" t="s">
-        <v>402</v>
-      </c>
       <c r="D491">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.35">
@@ -9227,13 +9213,13 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
+        <v>402</v>
+      </c>
+      <c r="C492" t="s">
         <v>401</v>
       </c>
-      <c r="C492" t="s">
-        <v>403</v>
-      </c>
       <c r="D492">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.35">
@@ -9241,13 +9227,13 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C493" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D493">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
@@ -9255,13 +9241,13 @@
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C494" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D494">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.35">
@@ -9269,10 +9255,10 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C495" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D495">
         <v>1</v>
@@ -9283,10 +9269,10 @@
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C496" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D496">
         <v>1</v>
@@ -9297,10 +9283,10 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C497" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D497">
         <v>1</v>
@@ -9311,10 +9297,10 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C498" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D498">
         <v>1</v>
@@ -9325,13 +9311,13 @@
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="C499" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D499">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
@@ -9339,13 +9325,13 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C500" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D500">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.35">
@@ -9353,13 +9339,13 @@
         <v>499</v>
       </c>
       <c r="B501" t="s">
+        <v>333</v>
+      </c>
+      <c r="C501" t="s">
         <v>415</v>
       </c>
-      <c r="C501" t="s">
-        <v>417</v>
-      </c>
       <c r="D501">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.35">
@@ -9367,13 +9353,13 @@
         <v>500</v>
       </c>
       <c r="B502" t="s">
-        <v>418</v>
+        <v>333</v>
       </c>
       <c r="C502" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D502">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
@@ -9381,13 +9367,13 @@
         <v>501</v>
       </c>
       <c r="B503" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C503" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="D503">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.35">
@@ -9395,10 +9381,10 @@
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C504" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="D504">
         <v>0.2</v>
@@ -9409,13 +9395,13 @@
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C505" t="s">
-        <v>296</v>
+        <v>419</v>
       </c>
       <c r="D505">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
@@ -9423,13 +9409,13 @@
         <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C506" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="D506">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.35">
@@ -9437,13 +9423,13 @@
         <v>505</v>
       </c>
       <c r="B507" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C507" t="s">
-        <v>296</v>
+        <v>398</v>
       </c>
       <c r="D507">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.35">
@@ -9451,13 +9437,13 @@
         <v>506</v>
       </c>
       <c r="B508" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C508" t="s">
-        <v>424</v>
+        <v>297</v>
       </c>
       <c r="D508">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
@@ -9465,10 +9451,10 @@
         <v>507</v>
       </c>
       <c r="B509" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C509" t="s">
-        <v>426</v>
+        <v>297</v>
       </c>
       <c r="D509">
         <v>1</v>
@@ -9479,10 +9465,10 @@
         <v>508</v>
       </c>
       <c r="B510" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C510" t="s">
-        <v>428</v>
+        <v>297</v>
       </c>
       <c r="D510">
         <v>1</v>
@@ -9493,10 +9479,10 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C511" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D511">
         <v>1</v>
@@ -9507,10 +9493,10 @@
         <v>510</v>
       </c>
       <c r="B512" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C512" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D512">
         <v>1</v>
@@ -9521,10 +9507,10 @@
         <v>511</v>
       </c>
       <c r="B513" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C513" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D513">
         <v>1</v>
@@ -9535,10 +9521,10 @@
         <v>512</v>
       </c>
       <c r="B514" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C514" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D514">
         <v>1</v>
@@ -9549,10 +9535,10 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C515" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D515">
         <v>1</v>
@@ -9563,10 +9549,10 @@
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C516" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D516">
         <v>1</v>
@@ -9577,10 +9563,10 @@
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C517" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D517">
         <v>1</v>
@@ -9591,7 +9577,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C518" t="s">
         <v>432</v>
@@ -9605,13 +9591,13 @@
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C519" t="s">
-        <v>168</v>
+        <v>432</v>
       </c>
       <c r="D519">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.35">
@@ -9619,13 +9605,13 @@
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C520" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D520">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
@@ -9633,13 +9619,13 @@
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C521" t="s">
-        <v>168</v>
+        <v>432</v>
       </c>
       <c r="D521">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.35">
@@ -9647,13 +9633,13 @@
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C522" t="s">
-        <v>439</v>
+        <v>170</v>
       </c>
       <c r="D522">
-        <v>0.05</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.35">
@@ -9661,13 +9647,13 @@
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C523" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D523">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
@@ -9675,13 +9661,13 @@
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C524" t="s">
         <v>170</v>
       </c>
       <c r="D524">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.35">
@@ -9689,13 +9675,13 @@
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C525" t="s">
         <v>439</v>
       </c>
       <c r="D525">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
@@ -9703,13 +9689,13 @@
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C526" t="s">
-        <v>170</v>
+        <v>442</v>
       </c>
       <c r="D526">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
@@ -9717,13 +9703,13 @@
         <v>525</v>
       </c>
       <c r="B527" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C527" t="s">
-        <v>439</v>
+        <v>172</v>
       </c>
       <c r="D527">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.35">
@@ -9731,13 +9717,13 @@
         <v>526</v>
       </c>
       <c r="B528" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C528" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D528">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.35">
@@ -9745,13 +9731,13 @@
         <v>527</v>
       </c>
       <c r="B529" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C529" t="s">
-        <v>439</v>
+        <v>172</v>
       </c>
       <c r="D529">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
@@ -9759,13 +9745,13 @@
         <v>528</v>
       </c>
       <c r="B530" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C530" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D530">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.35">
@@ -9773,13 +9759,13 @@
         <v>529</v>
       </c>
       <c r="B531" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C531" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D531">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.35">
@@ -9787,13 +9773,13 @@
         <v>530</v>
       </c>
       <c r="B532" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C532" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D532">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
@@ -9801,13 +9787,13 @@
         <v>531</v>
       </c>
       <c r="B533" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C533" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D533">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.35">
@@ -9815,13 +9801,13 @@
         <v>532</v>
       </c>
       <c r="B534" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C534" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D534">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.35">
@@ -9829,13 +9815,13 @@
         <v>533</v>
       </c>
       <c r="B535" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C535" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D535">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
@@ -9843,13 +9829,13 @@
         <v>534</v>
       </c>
       <c r="B536" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C536" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D536">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.35">
@@ -9857,13 +9843,13 @@
         <v>535</v>
       </c>
       <c r="B537" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C537" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D537">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.35">
@@ -9871,13 +9857,13 @@
         <v>536</v>
       </c>
       <c r="B538" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C538" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D538">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
@@ -9888,7 +9874,7 @@
         <v>454</v>
       </c>
       <c r="C539" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D539">
         <v>0.25</v>
@@ -9899,13 +9885,13 @@
         <v>538</v>
       </c>
       <c r="B540" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="C540" t="s">
         <v>439</v>
       </c>
       <c r="D540">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.35">
@@ -9913,13 +9899,13 @@
         <v>539</v>
       </c>
       <c r="B541" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="C541" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D541">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
@@ -9927,13 +9913,13 @@
         <v>540</v>
       </c>
       <c r="B542" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C542" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D542">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.35">
@@ -9941,13 +9927,13 @@
         <v>541</v>
       </c>
       <c r="B543" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="C543" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D543">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.35">
@@ -9955,13 +9941,13 @@
         <v>542</v>
       </c>
       <c r="B544" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C544" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D544">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
@@ -9969,13 +9955,13 @@
         <v>543</v>
       </c>
       <c r="B545" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="C545" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="D545">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.35">
@@ -9983,13 +9969,13 @@
         <v>544</v>
       </c>
       <c r="B546" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C546" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D546">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.35">
@@ -9997,7 +9983,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="C547" t="s">
         <v>457</v>
@@ -10011,10 +9997,10 @@
         <v>546</v>
       </c>
       <c r="B548" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="C548" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D548">
         <v>1</v>
@@ -10025,13 +10011,13 @@
         <v>547</v>
       </c>
       <c r="B549" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C549" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D549">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.35">
@@ -10039,13 +10025,13 @@
         <v>548</v>
       </c>
       <c r="B550" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C550" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D550">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
@@ -10053,13 +10039,13 @@
         <v>549</v>
       </c>
       <c r="B551" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C551" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D551">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.35">
@@ -10067,13 +10053,13 @@
         <v>550</v>
       </c>
       <c r="B552" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C552" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D552">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.35">
@@ -10081,13 +10067,13 @@
         <v>551</v>
       </c>
       <c r="B553" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C553" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D553">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
@@ -10095,13 +10081,13 @@
         <v>552</v>
       </c>
       <c r="B554" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C554" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="D554">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.35">
@@ -10109,10 +10095,10 @@
         <v>553</v>
       </c>
       <c r="B555" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C555" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D555">
         <v>1</v>
@@ -10123,10 +10109,10 @@
         <v>554</v>
       </c>
       <c r="B556" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C556" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D556">
         <v>1</v>
@@ -10137,10 +10123,10 @@
         <v>555</v>
       </c>
       <c r="B557" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="C557" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -10151,13 +10137,13 @@
         <v>556</v>
       </c>
       <c r="B558" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C558" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D558">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.35">
@@ -10165,13 +10151,13 @@
         <v>557</v>
       </c>
       <c r="B559" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C559" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D559">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
@@ -10179,10 +10165,10 @@
         <v>558</v>
       </c>
       <c r="B560" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="C560" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D560">
         <v>1</v>
@@ -10193,13 +10179,13 @@
         <v>559</v>
       </c>
       <c r="B561" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C561" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D561">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.35">
@@ -10207,13 +10193,13 @@
         <v>560</v>
       </c>
       <c r="B562" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C562" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D562">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
@@ -10221,10 +10207,10 @@
         <v>561</v>
       </c>
       <c r="B563" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="C563" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D563">
         <v>1</v>
@@ -10235,13 +10221,13 @@
         <v>562</v>
       </c>
       <c r="B564" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C564" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D564">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.35">
@@ -10249,13 +10235,13 @@
         <v>563</v>
       </c>
       <c r="B565" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C565" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D565">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
@@ -10263,13 +10249,13 @@
         <v>564</v>
       </c>
       <c r="B566" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C566" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D566">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.35">
@@ -10277,13 +10263,13 @@
         <v>565</v>
       </c>
       <c r="B567" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C567" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D567">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.35">
@@ -10291,13 +10277,13 @@
         <v>566</v>
       </c>
       <c r="B568" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C568" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D568">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
@@ -10305,13 +10291,13 @@
         <v>567</v>
       </c>
       <c r="B569" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C569" t="s">
         <v>484</v>
       </c>
       <c r="D569">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.35">
@@ -10319,13 +10305,13 @@
         <v>568</v>
       </c>
       <c r="B570" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C570" t="s">
         <v>485</v>
       </c>
       <c r="D570">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.35">
@@ -10333,10 +10319,10 @@
         <v>569</v>
       </c>
       <c r="B571" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C571" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D571">
         <v>1</v>
@@ -10347,13 +10333,13 @@
         <v>570</v>
       </c>
       <c r="B572" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C572" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D572">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.35">
@@ -10361,13 +10347,13 @@
         <v>571</v>
       </c>
       <c r="B573" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C573" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D573">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.35">
@@ -10375,13 +10361,13 @@
         <v>572</v>
       </c>
       <c r="B574" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C574" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="D574">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
@@ -10389,13 +10375,13 @@
         <v>573</v>
       </c>
       <c r="B575" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C575" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="D575">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.35">
@@ -10403,13 +10389,13 @@
         <v>574</v>
       </c>
       <c r="B576" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C576" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="D576">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.35">
@@ -10417,13 +10403,13 @@
         <v>575</v>
       </c>
       <c r="B577" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C577" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="D577">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
@@ -10431,13 +10417,13 @@
         <v>576</v>
       </c>
       <c r="B578" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C578" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D578">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.35">
@@ -10445,13 +10431,13 @@
         <v>577</v>
       </c>
       <c r="B579" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C579" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="D579">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.35">
@@ -10459,13 +10445,13 @@
         <v>578</v>
       </c>
       <c r="B580" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C580" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D580">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
@@ -10473,13 +10459,13 @@
         <v>579</v>
       </c>
       <c r="B581" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C581" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D581">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
@@ -10487,13 +10473,13 @@
         <v>580</v>
       </c>
       <c r="B582" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C582" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D582">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.35">
@@ -10501,13 +10487,13 @@
         <v>581</v>
       </c>
       <c r="B583" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C583" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D583">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.35">
@@ -10515,13 +10501,13 @@
         <v>582</v>
       </c>
       <c r="B584" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C584" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D584">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.35">
@@ -10529,13 +10515,13 @@
         <v>583</v>
       </c>
       <c r="B585" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C585" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D585">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.35">
@@ -10543,13 +10529,13 @@
         <v>584</v>
       </c>
       <c r="B586" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C586" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D586">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.35">
@@ -10557,13 +10543,13 @@
         <v>585</v>
       </c>
       <c r="B587" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C587" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D587">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.35">
@@ -10571,13 +10557,13 @@
         <v>586</v>
       </c>
       <c r="B588" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C588" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D588">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.35">
@@ -10585,10 +10571,10 @@
         <v>587</v>
       </c>
       <c r="B589" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C589" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D589">
         <v>1</v>
@@ -10599,10 +10585,10 @@
         <v>588</v>
       </c>
       <c r="B590" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C590" t="s">
-        <v>71</v>
+        <v>508</v>
       </c>
       <c r="D590">
         <v>1</v>
@@ -10613,13 +10599,13 @@
         <v>589</v>
       </c>
       <c r="B591" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C591" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D591">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.35">
@@ -10627,13 +10613,13 @@
         <v>590</v>
       </c>
       <c r="B592" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C592" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D592">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.35">
@@ -10641,10 +10627,10 @@
         <v>591</v>
       </c>
       <c r="B593" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="C593" t="s">
-        <v>514</v>
+        <v>71</v>
       </c>
       <c r="D593">
         <v>1</v>
@@ -10655,13 +10641,13 @@
         <v>592</v>
       </c>
       <c r="B594" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C594" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D594">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.35">
@@ -10669,13 +10655,13 @@
         <v>593</v>
       </c>
       <c r="B595" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C595" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D595">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.35">
@@ -10683,13 +10669,13 @@
         <v>594</v>
       </c>
       <c r="B596" t="s">
+        <v>463</v>
+      </c>
+      <c r="C596" t="s">
         <v>514</v>
       </c>
-      <c r="C596" t="s">
-        <v>517</v>
-      </c>
       <c r="D596">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.35">
@@ -10697,13 +10683,13 @@
         <v>595</v>
       </c>
       <c r="B597" t="s">
+        <v>515</v>
+      </c>
+      <c r="C597" t="s">
         <v>514</v>
       </c>
-      <c r="C597" t="s">
-        <v>472</v>
-      </c>
       <c r="D597">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.35">
@@ -10711,13 +10697,13 @@
         <v>596</v>
       </c>
       <c r="B598" t="s">
+        <v>515</v>
+      </c>
+      <c r="C598" t="s">
         <v>516</v>
       </c>
-      <c r="C598" t="s">
-        <v>518</v>
-      </c>
       <c r="D598">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.35">
@@ -10725,13 +10711,13 @@
         <v>597</v>
       </c>
       <c r="B599" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C599" t="s">
-        <v>71</v>
+        <v>517</v>
       </c>
       <c r="D599">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.35">
@@ -10739,13 +10725,13 @@
         <v>598</v>
       </c>
       <c r="B600" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C600" t="s">
         <v>472</v>
       </c>
       <c r="D600">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.35">
@@ -10753,13 +10739,13 @@
         <v>599</v>
       </c>
       <c r="B601" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C601" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D601">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.35">
@@ -10767,13 +10753,13 @@
         <v>600</v>
       </c>
       <c r="B602" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C602" t="s">
-        <v>470</v>
+        <v>71</v>
       </c>
       <c r="D602">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.35">
@@ -10781,13 +10767,13 @@
         <v>601</v>
       </c>
       <c r="B603" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C603" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="D603">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.35">
@@ -10795,13 +10781,13 @@
         <v>602</v>
       </c>
       <c r="B604" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C604" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D604">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.35">
@@ -10809,10 +10795,10 @@
         <v>603</v>
       </c>
       <c r="B605" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C605" t="s">
-        <v>71</v>
+        <v>470</v>
       </c>
       <c r="D605">
         <v>0.2</v>
@@ -10826,10 +10812,10 @@
         <v>522</v>
       </c>
       <c r="C606" t="s">
-        <v>523</v>
+        <v>426</v>
       </c>
       <c r="D606">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.35">
@@ -10840,10 +10826,10 @@
         <v>522</v>
       </c>
       <c r="C607" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="D607">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.35">
@@ -10851,13 +10837,13 @@
         <v>606</v>
       </c>
       <c r="B608" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C608" t="s">
-        <v>525</v>
+        <v>71</v>
       </c>
       <c r="D608">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.35">
@@ -10865,13 +10851,13 @@
         <v>607</v>
       </c>
       <c r="B609" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C609" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D609">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.35">
@@ -10879,13 +10865,13 @@
         <v>608</v>
       </c>
       <c r="B610" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C610" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="D610">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.35">
@@ -10893,10 +10879,10 @@
         <v>609</v>
       </c>
       <c r="B611" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C611" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D611">
         <v>1</v>
@@ -10907,10 +10893,10 @@
         <v>610</v>
       </c>
       <c r="B612" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C612" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D612">
         <v>1</v>
@@ -10921,13 +10907,13 @@
         <v>611</v>
       </c>
       <c r="B613" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C613" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D613">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.35">
@@ -10935,13 +10921,13 @@
         <v>612</v>
       </c>
       <c r="B614" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C614" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D614">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.35">
@@ -10949,13 +10935,13 @@
         <v>613</v>
       </c>
       <c r="B615" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C615" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D615">
-        <v>9.0909090909090912E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.35">
@@ -10966,10 +10952,10 @@
         <v>532</v>
       </c>
       <c r="C616" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D616">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.35">
@@ -10980,10 +10966,10 @@
         <v>532</v>
       </c>
       <c r="C617" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D617">
-        <v>0.1818181818181818</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.35">
@@ -10994,10 +10980,10 @@
         <v>532</v>
       </c>
       <c r="C618" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D618">
-        <v>0.1818181818181818</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.35">
@@ -11008,10 +10994,10 @@
         <v>532</v>
       </c>
       <c r="C619" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D619">
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.35">
@@ -11022,10 +11008,10 @@
         <v>532</v>
       </c>
       <c r="C620" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D620">
-        <v>9.0909090909090912E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.35">
@@ -11033,13 +11019,13 @@
         <v>619</v>
       </c>
       <c r="B621" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C621" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="D621">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.35">
@@ -11047,13 +11033,13 @@
         <v>620</v>
       </c>
       <c r="B622" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C622" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D622">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.35">
@@ -11061,13 +11047,13 @@
         <v>621</v>
       </c>
       <c r="B623" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C623" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="D623">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.35">
@@ -11075,10 +11061,10 @@
         <v>622</v>
       </c>
       <c r="B624" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C624" t="s">
-        <v>541</v>
+        <v>477</v>
       </c>
       <c r="D624">
         <v>1</v>
@@ -11089,13 +11075,13 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C625" t="s">
         <v>541</v>
       </c>
       <c r="D625">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.35">
@@ -11103,13 +11089,13 @@
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C626" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D626">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.35">
@@ -11117,10 +11103,10 @@
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C627" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D627">
         <v>1</v>
@@ -11131,13 +11117,13 @@
         <v>626</v>
       </c>
       <c r="B628" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C628" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D628">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.35">
@@ -11145,13 +11131,13 @@
         <v>627</v>
       </c>
       <c r="B629" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C629" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D629">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.35">
@@ -11159,13 +11145,13 @@
         <v>628</v>
       </c>
       <c r="B630" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C630" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D630">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.35">
@@ -11176,10 +11162,10 @@
         <v>548</v>
       </c>
       <c r="C631" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D631">
-        <v>0.02</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.35">
@@ -11190,10 +11176,10 @@
         <v>548</v>
       </c>
       <c r="C632" t="s">
-        <v>403</v>
+        <v>549</v>
       </c>
       <c r="D632">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.35">
@@ -11201,13 +11187,13 @@
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C633" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="D633">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.35">
@@ -11215,13 +11201,13 @@
         <v>632</v>
       </c>
       <c r="B634" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C634" t="s">
-        <v>293</v>
+        <v>551</v>
       </c>
       <c r="D634">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.35">
@@ -11229,13 +11215,13 @@
         <v>633</v>
       </c>
       <c r="B635" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C635" t="s">
-        <v>523</v>
+        <v>404</v>
       </c>
       <c r="D635">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.35">
@@ -11243,7 +11229,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C636" t="s">
         <v>523</v>
@@ -11257,13 +11243,13 @@
         <v>635</v>
       </c>
       <c r="B637" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C637" t="s">
-        <v>504</v>
+        <v>294</v>
       </c>
       <c r="D637">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.35">
@@ -11271,13 +11257,13 @@
         <v>636</v>
       </c>
       <c r="B638" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C638" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="D638">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.35">
@@ -11285,13 +11271,13 @@
         <v>637</v>
       </c>
       <c r="B639" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C639" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="D639">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.35">
@@ -11299,13 +11285,13 @@
         <v>638</v>
       </c>
       <c r="B640" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C640" t="s">
-        <v>306</v>
+        <v>504</v>
       </c>
       <c r="D640">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.35">
@@ -11313,13 +11299,13 @@
         <v>639</v>
       </c>
       <c r="B641" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C641" t="s">
-        <v>30</v>
+        <v>557</v>
       </c>
       <c r="D641">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.35">
@@ -11327,13 +11313,13 @@
         <v>640</v>
       </c>
       <c r="B642" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C642" t="s">
-        <v>306</v>
+        <v>557</v>
       </c>
       <c r="D642">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.35">
@@ -11341,13 +11327,13 @@
         <v>641</v>
       </c>
       <c r="B643" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C643" t="s">
-        <v>472</v>
+        <v>307</v>
       </c>
       <c r="D643">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.35">
@@ -11355,13 +11341,13 @@
         <v>642</v>
       </c>
       <c r="B644" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C644" t="s">
-        <v>428</v>
+        <v>30</v>
       </c>
       <c r="D644">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.35">
@@ -11369,13 +11355,13 @@
         <v>643</v>
       </c>
       <c r="B645" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C645" t="s">
-        <v>472</v>
+        <v>307</v>
       </c>
       <c r="D645">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.35">
@@ -11383,7 +11369,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C646" t="s">
         <v>472</v>
@@ -11397,13 +11383,13 @@
         <v>645</v>
       </c>
       <c r="B647" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C647" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="D647">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.35">
@@ -11411,13 +11397,13 @@
         <v>646</v>
       </c>
       <c r="B648" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C648" t="s">
         <v>472</v>
       </c>
       <c r="D648">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.35">
@@ -11425,10 +11411,10 @@
         <v>647</v>
       </c>
       <c r="B649" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C649" t="s">
-        <v>566</v>
+        <v>472</v>
       </c>
       <c r="D649">
         <v>1</v>
@@ -11439,7 +11425,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C650" t="s">
         <v>472</v>
@@ -11453,13 +11439,13 @@
         <v>649</v>
       </c>
       <c r="B651" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C651" t="s">
-        <v>569</v>
+        <v>472</v>
       </c>
       <c r="D651">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.35">
@@ -11467,13 +11453,13 @@
         <v>650</v>
       </c>
       <c r="B652" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C652" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="D652">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.35">
@@ -11481,10 +11467,10 @@
         <v>651</v>
       </c>
       <c r="B653" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C653" t="s">
-        <v>571</v>
+        <v>472</v>
       </c>
       <c r="D653">
         <v>1</v>
@@ -11495,13 +11481,13 @@
         <v>652</v>
       </c>
       <c r="B654" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C654" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="D654">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.35">
@@ -11509,13 +11495,13 @@
         <v>653</v>
       </c>
       <c r="B655" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C655" t="s">
-        <v>574</v>
+        <v>502</v>
       </c>
       <c r="D655">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.35">
@@ -11523,10 +11509,10 @@
         <v>654</v>
       </c>
       <c r="B656" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C656" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D656">
         <v>1</v>
@@ -11537,10 +11523,10 @@
         <v>655</v>
       </c>
       <c r="B657" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C657" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="D657">
         <v>1</v>
@@ -11551,10 +11537,10 @@
         <v>656</v>
       </c>
       <c r="B658" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C658" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D658">
         <v>1</v>
@@ -11565,10 +11551,10 @@
         <v>657</v>
       </c>
       <c r="B659" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C659" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="D659">
         <v>1</v>
@@ -11579,10 +11565,10 @@
         <v>658</v>
       </c>
       <c r="B660" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C660" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
       <c r="D660">
         <v>1</v>
@@ -11593,13 +11579,13 @@
         <v>659</v>
       </c>
       <c r="B661" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C661" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D661">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.35">
@@ -11607,13 +11593,13 @@
         <v>660</v>
       </c>
       <c r="B662" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C662" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="D662">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.35">
@@ -11621,10 +11607,10 @@
         <v>661</v>
       </c>
       <c r="B663" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C663" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="D663">
         <v>1</v>
@@ -11635,13 +11621,13 @@
         <v>662</v>
       </c>
       <c r="B664" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C664" t="s">
-        <v>403</v>
+        <v>584</v>
       </c>
       <c r="D664">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.35">
@@ -11649,13 +11635,13 @@
         <v>663</v>
       </c>
       <c r="B665" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C665" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D665">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.35">
@@ -11663,13 +11649,13 @@
         <v>664</v>
       </c>
       <c r="B666" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C666" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="D666">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.35">
@@ -11677,13 +11663,13 @@
         <v>665</v>
       </c>
       <c r="B667" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C667" t="s">
-        <v>551</v>
+        <v>404</v>
       </c>
       <c r="D667">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.35">
@@ -11691,13 +11677,13 @@
         <v>666</v>
       </c>
       <c r="B668" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C668" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D668">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.35">
@@ -11705,13 +11691,13 @@
         <v>667</v>
       </c>
       <c r="B669" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C669" t="s">
-        <v>403</v>
+        <v>585</v>
       </c>
       <c r="D669">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.35">
@@ -11719,13 +11705,13 @@
         <v>668</v>
       </c>
       <c r="B670" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C670" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="D670">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.35">
@@ -11733,13 +11719,13 @@
         <v>669</v>
       </c>
       <c r="B671" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C671" t="s">
-        <v>472</v>
+        <v>585</v>
       </c>
       <c r="D671">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.35">
@@ -11747,13 +11733,13 @@
         <v>670</v>
       </c>
       <c r="B672" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C672" t="s">
-        <v>592</v>
+        <v>404</v>
       </c>
       <c r="D672">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.35">
@@ -11761,13 +11747,13 @@
         <v>671</v>
       </c>
       <c r="B673" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C673" t="s">
-        <v>594</v>
+        <v>509</v>
       </c>
       <c r="D673">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.35">
@@ -11775,13 +11761,13 @@
         <v>672</v>
       </c>
       <c r="B674" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C674" t="s">
-        <v>596</v>
+        <v>472</v>
       </c>
       <c r="D674">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.35">
@@ -11789,13 +11775,13 @@
         <v>673</v>
       </c>
       <c r="B675" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C675" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D675">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.35">
@@ -11803,10 +11789,10 @@
         <v>674</v>
       </c>
       <c r="B676" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C676" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D676">
         <v>1</v>
@@ -11817,13 +11803,13 @@
         <v>675</v>
       </c>
       <c r="B677" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C677" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D677">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.35">
@@ -11831,13 +11817,13 @@
         <v>676</v>
       </c>
       <c r="B678" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C678" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D678">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.35">
@@ -11845,13 +11831,13 @@
         <v>677</v>
       </c>
       <c r="B679" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C679" t="s">
         <v>598</v>
       </c>
       <c r="D679">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.35">
@@ -11859,13 +11845,13 @@
         <v>678</v>
       </c>
       <c r="B680" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C680" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D680">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.35">
@@ -11873,13 +11859,13 @@
         <v>679</v>
       </c>
       <c r="B681" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C681" t="s">
         <v>601</v>
       </c>
       <c r="D681">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.35">
@@ -11887,13 +11873,13 @@
         <v>680</v>
       </c>
       <c r="B682" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C682" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D682">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.35">
@@ -11901,13 +11887,13 @@
         <v>681</v>
       </c>
       <c r="B683" t="s">
-        <v>306</v>
+        <v>602</v>
       </c>
       <c r="C683" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
       <c r="D683">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.35">
@@ -11915,13 +11901,13 @@
         <v>682</v>
       </c>
       <c r="B684" t="s">
-        <v>306</v>
+        <v>603</v>
       </c>
       <c r="C684" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
       <c r="D684">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.35">
@@ -11929,13 +11915,13 @@
         <v>683</v>
       </c>
       <c r="B685" t="s">
-        <v>306</v>
+        <v>604</v>
       </c>
       <c r="C685" t="s">
-        <v>470</v>
+        <v>592</v>
       </c>
       <c r="D685">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.35">
@@ -11946,10 +11932,10 @@
         <v>605</v>
       </c>
       <c r="C686" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="D686">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.35">
@@ -11960,10 +11946,10 @@
         <v>605</v>
       </c>
       <c r="C687" t="s">
-        <v>450</v>
+        <v>592</v>
       </c>
       <c r="D687">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.35">
@@ -11971,13 +11957,13 @@
         <v>686</v>
       </c>
       <c r="B688" t="s">
-        <v>606</v>
+        <v>307</v>
       </c>
       <c r="C688" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="D688">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.35">
@@ -11985,13 +11971,13 @@
         <v>687</v>
       </c>
       <c r="B689" t="s">
-        <v>608</v>
+        <v>307</v>
       </c>
       <c r="C689" t="s">
-        <v>609</v>
+        <v>551</v>
       </c>
       <c r="D689">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.35">
@@ -11999,13 +11985,13 @@
         <v>688</v>
       </c>
       <c r="B690" t="s">
-        <v>610</v>
+        <v>307</v>
       </c>
       <c r="C690" t="s">
-        <v>542</v>
+        <v>470</v>
       </c>
       <c r="D690">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.35">
@@ -12013,13 +11999,13 @@
         <v>689</v>
       </c>
       <c r="B691" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C691" t="s">
-        <v>403</v>
+        <v>502</v>
       </c>
       <c r="D691">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.35">
@@ -12027,13 +12013,13 @@
         <v>690</v>
       </c>
       <c r="B692" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C692" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="D692">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.35">
@@ -12041,10 +12027,10 @@
         <v>691</v>
       </c>
       <c r="B693" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C693" t="s">
-        <v>403</v>
+        <v>608</v>
       </c>
       <c r="D693">
         <v>1</v>
@@ -12055,10 +12041,10 @@
         <v>692</v>
       </c>
       <c r="B694" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C694" t="s">
-        <v>551</v>
+        <v>610</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -12069,13 +12055,13 @@
         <v>693</v>
       </c>
       <c r="B695" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C695" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D695">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.35">
@@ -12083,13 +12069,13 @@
         <v>694</v>
       </c>
       <c r="B696" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C696" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D696">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.35">
@@ -12097,13 +12083,13 @@
         <v>695</v>
       </c>
       <c r="B697" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C697" t="s">
-        <v>542</v>
+        <v>404</v>
       </c>
       <c r="D697">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.35">
@@ -12111,10 +12097,10 @@
         <v>696</v>
       </c>
       <c r="B698" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C698" t="s">
-        <v>617</v>
+        <v>404</v>
       </c>
       <c r="D698">
         <v>1</v>
@@ -12125,10 +12111,10 @@
         <v>697</v>
       </c>
       <c r="B699" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C699" t="s">
-        <v>619</v>
+        <v>551</v>
       </c>
       <c r="D699">
         <v>1</v>
@@ -12139,13 +12125,13 @@
         <v>698</v>
       </c>
       <c r="B700" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C700" t="s">
-        <v>621</v>
+        <v>551</v>
       </c>
       <c r="D700">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.35">
@@ -12153,13 +12139,13 @@
         <v>699</v>
       </c>
       <c r="B701" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C701" t="s">
-        <v>623</v>
+        <v>404</v>
       </c>
       <c r="D701">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.35">
@@ -12167,13 +12153,13 @@
         <v>700</v>
       </c>
       <c r="B702" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C702" t="s">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="D702">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.35">
@@ -12181,13 +12167,13 @@
         <v>701</v>
       </c>
       <c r="B703" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C703" t="s">
-        <v>28</v>
+        <v>618</v>
       </c>
       <c r="D703">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.35">
@@ -12195,13 +12181,13 @@
         <v>702</v>
       </c>
       <c r="B704" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C704" t="s">
-        <v>477</v>
+        <v>620</v>
       </c>
       <c r="D704">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.35">
@@ -12209,13 +12195,13 @@
         <v>703</v>
       </c>
       <c r="B705" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C705" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D705">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.35">
@@ -12223,10 +12209,10 @@
         <v>704</v>
       </c>
       <c r="B706" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C706" t="s">
-        <v>292</v>
+        <v>624</v>
       </c>
       <c r="D706">
         <v>1</v>
@@ -12237,13 +12223,13 @@
         <v>705</v>
       </c>
       <c r="B707" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C707" t="s">
-        <v>220</v>
+        <v>626</v>
       </c>
       <c r="D707">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.35">
@@ -12251,10 +12237,10 @@
         <v>706</v>
       </c>
       <c r="B708" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C708" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="D708">
         <v>0.25</v>
@@ -12265,10 +12251,10 @@
         <v>707</v>
       </c>
       <c r="B709" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C709" t="s">
-        <v>217</v>
+        <v>477</v>
       </c>
       <c r="D709">
         <v>0.5</v>
@@ -12279,13 +12265,13 @@
         <v>708</v>
       </c>
       <c r="B710" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C710" t="s">
-        <v>293</v>
+        <v>628</v>
       </c>
       <c r="D710">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.35">
@@ -12293,7 +12279,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C711" t="s">
         <v>293</v>
@@ -12307,13 +12293,13 @@
         <v>710</v>
       </c>
       <c r="B712" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C712" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="D712">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.35">
@@ -12321,13 +12307,13 @@
         <v>711</v>
       </c>
       <c r="B713" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C713" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="D713">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.35">
@@ -12335,13 +12321,13 @@
         <v>712</v>
       </c>
       <c r="B714" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C714" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D714">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.35">
@@ -12349,13 +12335,13 @@
         <v>713</v>
       </c>
       <c r="B715" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C715" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D715">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.35">
@@ -12363,10 +12349,10 @@
         <v>714</v>
       </c>
       <c r="B716" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C716" t="s">
-        <v>636</v>
+        <v>294</v>
       </c>
       <c r="D716">
         <v>1</v>
@@ -12377,10 +12363,10 @@
         <v>715</v>
       </c>
       <c r="B717" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C717" t="s">
-        <v>638</v>
+        <v>294</v>
       </c>
       <c r="D717">
         <v>1</v>
@@ -12391,13 +12377,13 @@
         <v>716</v>
       </c>
       <c r="B718" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C718" t="s">
-        <v>640</v>
+        <v>174</v>
       </c>
       <c r="D718">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.35">
@@ -12405,13 +12391,13 @@
         <v>717</v>
       </c>
       <c r="B719" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C719" t="s">
-        <v>588</v>
+        <v>294</v>
       </c>
       <c r="D719">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.35">
@@ -12419,10 +12405,10 @@
         <v>718</v>
       </c>
       <c r="B720" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C720" t="s">
-        <v>643</v>
+        <v>294</v>
       </c>
       <c r="D720">
         <v>1</v>
@@ -12433,10 +12419,10 @@
         <v>719</v>
       </c>
       <c r="B721" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C721" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D721">
         <v>1</v>
@@ -12447,10 +12433,10 @@
         <v>720</v>
       </c>
       <c r="B722" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C722" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D722">
         <v>1</v>
@@ -12461,12 +12447,82 @@
         <v>721</v>
       </c>
       <c r="B723" t="s">
+        <v>640</v>
+      </c>
+      <c r="C723" t="s">
+        <v>641</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A724" s="1">
+        <v>722</v>
+      </c>
+      <c r="B724" t="s">
+        <v>642</v>
+      </c>
+      <c r="C724" t="s">
+        <v>588</v>
+      </c>
+      <c r="D724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A725" s="1">
+        <v>723</v>
+      </c>
+      <c r="B725" t="s">
+        <v>643</v>
+      </c>
+      <c r="C725" t="s">
+        <v>644</v>
+      </c>
+      <c r="D725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A726" s="1">
+        <v>724</v>
+      </c>
+      <c r="B726" t="s">
+        <v>645</v>
+      </c>
+      <c r="C726" t="s">
+        <v>646</v>
+      </c>
+      <c r="D726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A727" s="1">
+        <v>725</v>
+      </c>
+      <c r="B727" t="s">
         <v>647</v>
       </c>
-      <c r="C723" t="s">
-        <v>647</v>
-      </c>
-      <c r="D723">
+      <c r="C727" t="s">
+        <v>643</v>
+      </c>
+      <c r="D727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A728" s="1">
+        <v>726</v>
+      </c>
+      <c r="B728" t="s">
+        <v>648</v>
+      </c>
+      <c r="C728" t="s">
+        <v>648</v>
+      </c>
+      <c r="D728">
         <v>1</v>
       </c>
     </row>

--- a/output/correspondence_table.xlsx
+++ b/output/correspondence_table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C738"/>
+  <dimension ref="A1:C737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="64">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="72">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="73">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="74">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="75">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="76">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.15</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="77">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="78">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="79">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="80">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.1</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="81">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="82">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="83">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="87">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="101">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="102">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="111">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="112">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="113">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="114">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="121">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="122">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="126">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="127">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="128">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="129">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.09900990099009901</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.8415841584158416</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.04950495049504951</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="143">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.009900990099009901</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="144">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="146">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="152">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="153">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="154">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="164">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="171">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="172">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="173">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="175">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="176">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="177">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="178">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="179">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="190">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="192">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="201">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="202">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="210">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="211">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="215">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="217">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="219">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="226">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="227">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="230">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="231">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="236">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="237">
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="238">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="239">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="240">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="244">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="248">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="250">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.04999999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="251">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.04999999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="252">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.04999999999999999</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="253">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.02499999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="254">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.02499999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="255">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="256">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="257">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="258">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="261">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="262">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="267">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="268">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="269">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="272">
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="274">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="276">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="277">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="281">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="282">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="283">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="284">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="291">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="292">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="294">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="295">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="298">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="299">
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="300">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="301">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="305">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="306">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="308">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="309">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="310">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="311">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="312">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="313">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="321">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="323">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="324">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="325">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="326">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="327">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="328">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="329">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="330">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="331">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="332">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="333">
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="334">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="335">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="336">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="337">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="338">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="339">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="340">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="341">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="342">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="343">
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.07142857142857141</v>
       </c>
     </row>
     <row r="344">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.07142857142857141</v>
       </c>
     </row>
     <row r="345">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857141</v>
       </c>
     </row>
     <row r="346">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.07142857142857141</v>
       </c>
     </row>
     <row r="347">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.07142857142857141</v>
       </c>
     </row>
     <row r="348">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857141</v>
       </c>
     </row>
     <row r="349">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.07142857142857141</v>
       </c>
     </row>
     <row r="350">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.07142857142857141</v>
       </c>
     </row>
     <row r="351">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="352">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="353">
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="354">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="355">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="356">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="357">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="358">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="359">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="360">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="361">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.07142857142857141</v>
       </c>
     </row>
     <row r="362">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="363">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="364">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="365">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="366">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="367">
@@ -5933,11 +5933,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>3320</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="368">
@@ -5948,22 +5948,22 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>5260</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>3314</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>2520</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -5978,11 +5978,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2922</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.02</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="371">
@@ -5993,11 +5993,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.04</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="372">
@@ -6008,11 +6008,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.06</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="373">
@@ -6023,11 +6023,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="374">
@@ -6038,11 +6038,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.24</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="375">
@@ -6053,11 +6053,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>3140</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.12</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="376">
@@ -6068,11 +6068,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.08</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="377">
@@ -6083,11 +6083,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="378">
@@ -6098,26 +6098,26 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>3190</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.12</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>3314</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="380">
@@ -6128,11 +6128,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>3511</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="381">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -6158,11 +6158,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>3520</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="383">
@@ -6173,11 +6173,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>3530</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="384">
@@ -6188,26 +6188,26 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>3599</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>3315</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="386">
@@ -6218,11 +6218,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1723</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="387">
@@ -6233,11 +6233,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="388">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2029</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6263,11 +6263,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="390">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2520</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -6323,11 +6323,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2699</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="394">
@@ -6338,11 +6338,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="395">
@@ -6353,11 +6353,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>3312</t>
+          <t>3330</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="396">
@@ -6368,11 +6368,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>3330</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="397">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6393,12 +6393,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>3319</t>
+          <t>3320</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>2813</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2813</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2914</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2915</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2919</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>2922</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2923</t>
+          <t>2924</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2924</t>
+          <t>2925</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>4540</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -6678,27 +6678,27 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>3510</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6708,16 +6708,16 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>3520</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="420">
@@ -6728,37 +6728,37 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>3530</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,7 +6768,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6783,16 +6783,16 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>3812</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="425">
@@ -6803,26 +6803,26 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>3812</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>2412</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="427">
@@ -6833,26 +6833,26 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2412</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="429">
@@ -6863,26 +6863,26 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>3822</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="431">
@@ -6893,26 +6893,26 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>3710</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>3720</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="433">
@@ -6923,32 +6923,32 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -6963,7 +6963,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="437">
@@ -6983,37 +6983,37 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>4520</t>
+          <t>7010</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>7010</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>4520</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7023,7 +7023,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="441">
@@ -7043,32 +7043,32 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>4312</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>4550</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7083,7 +7083,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>4322</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="445">
@@ -7103,26 +7103,26 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>4540</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>4330</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="447">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>4540</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7143,12 +7143,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>4330</t>
+          <t>4390</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7163,11 +7163,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>4520</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="450">
@@ -7178,11 +7178,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>4540</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0.04999999999999999</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="451">
@@ -7193,37 +7193,37 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.04999999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>4550</t>
+          <t>5010</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>5010</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7233,12 +7233,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>4520</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>5030</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>4540</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>5030</t>
+          <t>5040</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,12 +7278,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>5121</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7293,12 +7293,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>4620</t>
+          <t>4630</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>5121</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7308,12 +7308,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>4630</t>
+          <t>4641</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>5131</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>4641</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>5131</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>4651</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5151</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>4651</t>
+          <t>4652</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>5151</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>4653</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>5152</t>
+          <t>5159</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7383,7 +7383,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>4653</t>
+          <t>4659</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7398,12 +7398,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>4659</t>
+          <t>4661</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>5159</t>
+          <t>5141</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>4661</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>5141</t>
+          <t>5142</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,16 +7428,16 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>5142</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="468">
@@ -7448,37 +7448,37 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5143</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>5143</t>
+          <t>5149</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>4669</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>5149</t>
+          <t>5190</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>4690</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>5211</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>4711</t>
+          <t>4719</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>5211</t>
+          <t>5219</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7518,12 +7518,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>4719</t>
+          <t>4721</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>5219</t>
+          <t>5220</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7533,7 +7533,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>4721</t>
+          <t>4722</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7548,7 +7548,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>4722</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>4730</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5050</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,12 +7578,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>4730</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>5050</t>
+          <t>5239</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>4742</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>5233</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,12 +7608,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>4742</t>
+          <t>4751</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>5233</t>
+          <t>5232</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>4751</t>
+          <t>4752</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>5232</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,16 +7638,16 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>4752</t>
+          <t>4753</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>5234</t>
+          <t>5233</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="482">
@@ -7658,37 +7658,37 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>5233</t>
+          <t>5239</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>4759</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>5233</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>4759</t>
+          <t>4761</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>5233</t>
+          <t>5239</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>4761</t>
+          <t>4762</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>5233</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,12 +7713,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>4762</t>
+          <t>4763</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>5233</t>
+          <t>5239</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7728,7 +7728,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>4764</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>4764</t>
+          <t>4771</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>5232</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>4771</t>
+          <t>4772</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>5232</t>
+          <t>5231</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>4772</t>
+          <t>4773</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>5231</t>
+          <t>5239</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>4773</t>
+          <t>4774</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>5240</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>4774</t>
+          <t>4781</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>5252</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,7 +7818,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>4782</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7833,7 +7833,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>4782</t>
+          <t>4789</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -7848,16 +7848,16 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>4789</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>5252</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="496">
@@ -7868,17 +7868,17 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>5259</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4799</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -7887,18 +7887,18 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>4799</t>
+          <t>4911</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>5259</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -7908,7 +7908,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>4911</t>
+          <t>4912</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>4912</t>
+          <t>4921</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6021</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,7 +7938,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>4921</t>
+          <t>4922</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="502">
@@ -7958,11 +7958,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>6021</t>
+          <t>6022</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="503">
@@ -7973,37 +7973,37 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>9241</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>4922</t>
+          <t>4923</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>9241</t>
+          <t>6023</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>4923</t>
+          <t>4930</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>6023</t>
+          <t>6030</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>4930</t>
+          <t>5011</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>6030</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8028,7 +8028,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>5011</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>5021</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>6120</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,7 +8058,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>5021</t>
+          <t>5022</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8073,16 +8073,16 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>5022</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>6120</t>
+          <t>6210</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="511">
@@ -8093,26 +8093,26 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>6210</t>
+          <t>6220</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>5120</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>6210</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="513">
@@ -8123,41 +8123,41 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>6210</t>
+          <t>6220</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>5120</t>
+          <t>5210</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>6302</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>5210</t>
+          <t>5221</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>6302</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="516">
@@ -8168,11 +8168,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="517">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,7 +8193,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>5221</t>
+          <t>5222</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -8202,13 +8202,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>5223</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>5224</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6301</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>5224</t>
+          <t>5229</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>6301</t>
+          <t>6309</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,12 +8253,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>5229</t>
+          <t>5310</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>6309</t>
+          <t>6411</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -8268,12 +8268,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>5320</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>6412</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -8283,12 +8283,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>5320</t>
+          <t>5510</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>6412</t>
+          <t>5510</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -8298,7 +8298,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>5510</t>
+          <t>5520</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8313,7 +8313,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5610</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>5510</t>
+          <t>5520</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,7 +8343,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>5610</t>
+          <t>5621</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>5621</t>
+          <t>5629</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8373,7 +8373,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>5629</t>
+          <t>5630</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -8388,16 +8388,16 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>5630</t>
+          <t>5811</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>2211</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="532">
@@ -8408,26 +8408,26 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>5812</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>2211</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="534">
@@ -8438,26 +8438,26 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>5812</t>
+          <t>5813</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="536">
@@ -8468,11 +8468,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2212</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="537">
@@ -8483,26 +8483,26 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2219</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>5813</t>
+          <t>5819</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="539">
@@ -8513,26 +8513,26 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2219</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>5819</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>7221</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="541">
@@ -8543,26 +8543,26 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>7221</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>5820</t>
+          <t>5911</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>9211</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="543">
@@ -8573,26 +8573,26 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>9211</t>
+          <t>9213</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>5911</t>
+          <t>5912</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>9213</t>
+          <t>9211</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="545">
@@ -8603,37 +8603,37 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>9211</t>
+          <t>9231</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>5912</t>
+          <t>5913</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>9231</t>
+          <t>9211</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>5913</t>
+          <t>5914</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>9211</t>
+          <t>9212</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -8643,16 +8643,16 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>5914</t>
+          <t>5920</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>9212</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="549">
@@ -8663,11 +8663,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2213</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="550">
@@ -8678,11 +8678,11 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>9211</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="551">
@@ -8693,26 +8693,26 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>9211</t>
+          <t>9213</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>5920</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>9213</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="553">
@@ -8723,26 +8723,26 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>9213</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>9213</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="555">
@@ -8753,32 +8753,32 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>9213</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>9213</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>6120</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -8793,7 +8793,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>6120</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -8808,7 +8808,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6190</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -8823,12 +8823,12 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>6190</t>
+          <t>6201</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>7229</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -8838,16 +8838,16 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>6201</t>
+          <t>6202</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>7210</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="562">
@@ -8858,11 +8858,11 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>7210</t>
+          <t>7229</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="563">
@@ -8873,37 +8873,37 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>7230</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>6202</t>
+          <t>6209</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>7230</t>
+          <t>7290</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>0.34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>6209</t>
+          <t>6311</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>7290</t>
+          <t>7230</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -8913,12 +8913,12 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>6311</t>
+          <t>6312</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>7230</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -8928,12 +8928,12 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>6312</t>
+          <t>6391</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>9220</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -8943,12 +8943,12 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>6391</t>
+          <t>6399</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>9220</t>
+          <t>7499</t>
         </is>
       </c>
       <c r="C568" t="n">
@@ -8958,12 +8958,12 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>6399</t>
+          <t>6411</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>7499</t>
+          <t>6511</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -8973,16 +8973,16 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>6419</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>6511</t>
+          <t>6519</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="571">
@@ -8993,32 +8993,32 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>6519</t>
+          <t>6719</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>6419</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>6719</t>
+          <t>6599</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6430</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -9033,12 +9033,12 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>6430</t>
+          <t>6491</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>6599</t>
+          <t>6591</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -9048,12 +9048,12 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>6491</t>
+          <t>6492</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>6591</t>
+          <t>6592</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -9063,7 +9063,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>6492</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="577">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>6592</t>
+          <t>6599</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -9093,16 +9093,16 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>6499</t>
+          <t>6511</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>6599</t>
+          <t>6601</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="579">
@@ -9113,17 +9113,17 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>6601</t>
+          <t>6603</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>6511</t>
+          <t>6512</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -9132,22 +9132,22 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>6512</t>
+          <t>6520</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>6603</t>
+          <t>6601</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="582">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>6601</t>
+          <t>6603</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -9168,27 +9168,27 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>6520</t>
+          <t>6530</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>6603</t>
+          <t>6602</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>6530</t>
+          <t>6611</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>6602</t>
+          <t>6711</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -9198,16 +9198,16 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>6611</t>
+          <t>6612</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>6711</t>
+          <t>6712</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="586">
@@ -9218,26 +9218,26 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>6712</t>
+          <t>6719</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>6612</t>
+          <t>6619</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>6719</t>
+          <t>6599</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="588">
@@ -9248,32 +9248,32 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>6599</t>
+          <t>6719</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>6619</t>
+          <t>6621</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>6719</t>
+          <t>6720</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>6621</t>
+          <t>6622</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -9288,7 +9288,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>6622</t>
+          <t>6629</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -9303,16 +9303,16 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>6629</t>
+          <t>6630</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>6720</t>
+          <t>6602</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="593">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>6602</t>
+          <t>6712</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -9333,16 +9333,16 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>6630</t>
+          <t>6810</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>6712</t>
+          <t>7010</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="595">
@@ -9353,22 +9353,26 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>7010</t>
+          <t>7514</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="596">
-      <c r="A596" t="inlineStr"/>
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>6820</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>7514</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="597">
@@ -9379,37 +9383,37 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>7514</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>6820</t>
+          <t>6910</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>7514</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>6910</t>
+          <t>6920</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>7412</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -9419,12 +9423,12 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>6920</t>
+          <t>7010</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>7412</t>
+          <t>7414</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -9434,7 +9438,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>7010</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -9449,12 +9453,12 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>7110</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>7414</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="C602" t="n">
@@ -9464,16 +9468,16 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>7110</t>
+          <t>7120</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>7421</t>
+          <t>7422</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="604">
@@ -9484,32 +9488,32 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>7422</t>
+          <t>7523</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>7210</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>7523</t>
+          <t>7310</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>7210</t>
+          <t>7220</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -9518,7 +9522,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="607">
@@ -9529,7 +9533,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>7310</t>
+          <t>7320</t>
         </is>
       </c>
       <c r="C607" t="n">
@@ -9539,16 +9543,16 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>7220</t>
+          <t>7310</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>7320</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="609">
@@ -9559,41 +9563,41 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>7499</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>7310</t>
+          <t>7320</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>7499</t>
+          <t>7413</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>7320</t>
+          <t>7410</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>7413</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="612">
@@ -9604,26 +9608,26 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>7421</t>
+          <t>7499</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>7410</t>
+          <t>7420</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>7499</t>
+          <t>7494</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="614">
@@ -9634,22 +9638,22 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>7494</t>
+          <t>9220</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>7420</t>
+          <t>7490</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>9220</t>
+          <t>6309</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -9664,11 +9668,11 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>6309</t>
+          <t>7414</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="617">
@@ -9679,7 +9683,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>7414</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="C617" t="n">
@@ -9694,11 +9698,11 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>7421</t>
+          <t>7492</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="619">
@@ -9709,7 +9713,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>7492</t>
+          <t>7499</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -9719,27 +9723,27 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>7490</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>7499</t>
+          <t>8520</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>7710</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>8520</t>
+          <t>7111</t>
         </is>
       </c>
       <c r="C621" t="n">
@@ -9749,12 +9753,12 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>7710</t>
+          <t>7721</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>7111</t>
+          <t>7130</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -9764,7 +9768,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>7721</t>
+          <t>7722</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -9779,7 +9783,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>7722</t>
+          <t>7729</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -9794,16 +9798,16 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>7729</t>
+          <t>7730</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>7130</t>
+          <t>7111</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="626">
@@ -9814,11 +9818,11 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>7111</t>
+          <t>7112</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>0.15</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="627">
@@ -9829,11 +9833,11 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>7112</t>
+          <t>7113</t>
         </is>
       </c>
       <c r="C627" t="n">
-        <v>0.05</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="628">
@@ -9844,11 +9848,11 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>7113</t>
+          <t>7121</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>0.05</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="629">
@@ -9859,11 +9863,11 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>7121</t>
+          <t>7122</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>0.15</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="630">
@@ -9874,11 +9878,11 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>7122</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>0.15</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="631">
@@ -9889,11 +9893,11 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7129</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>0.15</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="632">
@@ -9904,41 +9908,41 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>7129</t>
+          <t>7130</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>0.15</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>7730</t>
+          <t>7740</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>7130</t>
+          <t>6599</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>7740</t>
+          <t>7810</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>6599</t>
+          <t>7491</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="635">
@@ -9949,32 +9953,32 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>7491</t>
+          <t>9249</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>7810</t>
+          <t>7820</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>9249</t>
+          <t>7491</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>7820</t>
+          <t>7830</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -9989,12 +9993,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>7830</t>
+          <t>7911</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>7491</t>
+          <t>6304</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -10004,7 +10008,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>7911</t>
+          <t>7912</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -10019,7 +10023,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>7912</t>
+          <t>7990</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -10028,7 +10032,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="641">
@@ -10039,11 +10043,11 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>6304</t>
+          <t>7513</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>0.8</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="642">
@@ -10054,11 +10058,11 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>7513</t>
+          <t>9214</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>0.1</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="643">
@@ -10069,11 +10073,11 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>9214</t>
+          <t>9219</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>0.05</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="644">
@@ -10084,41 +10088,41 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>9219</t>
+          <t>9241</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>0.03</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>7990</t>
+          <t>8010</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>9241</t>
+          <t>7492</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>8010</t>
+          <t>8020</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>7492</t>
+          <t>5260</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="647">
@@ -10129,7 +10133,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>7492</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -10139,7 +10143,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>8020</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -10148,18 +10152,18 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>8030</t>
+          <t>8110</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>7492</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -10169,12 +10173,12 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>8110</t>
+          <t>8121</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>7493</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -10184,7 +10188,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>8121</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -10193,7 +10197,7 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="652">
@@ -10204,26 +10208,26 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>7493</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>8129</t>
+          <t>8130</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="654">
@@ -10234,41 +10238,41 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>8130</t>
+          <t>8211</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>7499</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>8211</t>
+          <t>8219</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>7499</t>
+          <t>6411</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="657">
@@ -10279,17 +10283,17 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>7499</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>8219</t>
+          <t>8220</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -10298,13 +10302,13 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>8220</t>
+          <t>8230</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -10319,7 +10323,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>8230</t>
+          <t>8291</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -10334,12 +10338,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>8291</t>
+          <t>8292</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>7499</t>
+          <t>7495</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -10349,12 +10353,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>8292</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>7495</t>
+          <t>7499</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -10364,16 +10368,16 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>8411</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>7499</t>
+          <t>7511</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="664">
@@ -10384,37 +10388,37 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>7511</t>
+          <t>7514</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>8411</t>
+          <t>8412</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>7514</t>
+          <t>7512</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>8412</t>
+          <t>8413</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>7512</t>
+          <t>7513</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -10424,12 +10428,12 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>8413</t>
+          <t>8421</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>7513</t>
+          <t>7521</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -10439,12 +10443,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>8421</t>
+          <t>8422</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>7521</t>
+          <t>7522</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -10454,12 +10458,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>8422</t>
+          <t>8423</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>7522</t>
+          <t>7523</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -10469,12 +10473,12 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>8423</t>
+          <t>8430</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>7523</t>
+          <t>7530</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -10484,12 +10488,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>8430</t>
+          <t>8510</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>7530</t>
+          <t>8010</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -10499,12 +10503,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>8510</t>
+          <t>8521</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>8010</t>
+          <t>8021</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -10514,16 +10518,16 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>8521</t>
+          <t>8522</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>8021</t>
+          <t>8022</t>
         </is>
       </c>
       <c r="C673" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="674">
@@ -10534,41 +10538,41 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>8022</t>
+          <t>8090</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>8522</t>
+          <t>8530</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>8090</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>8530</t>
+          <t>8541</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>8030</t>
+          <t>9241</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="677">
@@ -10579,26 +10583,26 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>9241</t>
+          <t>9309</t>
         </is>
       </c>
       <c r="C677" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>8541</t>
+          <t>8542</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>9309</t>
+          <t>8090</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="679">
@@ -10609,26 +10613,26 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>8090</t>
+          <t>9219</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>8542</t>
+          <t>8549</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>9219</t>
+          <t>8090</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="681">
@@ -10639,26 +10643,26 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>8090</t>
+          <t>9241</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>8549</t>
+          <t>8550</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>9241</t>
+          <t>7414</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="683">
@@ -10669,11 +10673,11 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>7414</t>
+          <t>7499</t>
         </is>
       </c>
       <c r="C683" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="684">
@@ -10684,37 +10688,37 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>7499</t>
+          <t>8532</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>8610</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>8532</t>
+          <t>8511</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>8610</t>
+          <t>8620</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>8511</t>
+          <t>8512</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -10724,12 +10728,12 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>8620</t>
+          <t>8690</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>8512</t>
+          <t>8519</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -10739,7 +10743,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>8690</t>
+          <t>8710</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -10754,7 +10758,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>8710</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -10763,7 +10767,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="690">
@@ -10774,26 +10778,26 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>8519</t>
+          <t>8531</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>8720</t>
+          <t>8730</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>8531</t>
+          <t>8519</t>
         </is>
       </c>
       <c r="C691" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="692">
@@ -10804,17 +10808,17 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>8519</t>
+          <t>8531</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>8730</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -10823,18 +10827,18 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>8790</t>
+          <t>8810</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>8531</t>
+          <t>8532</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -10844,16 +10848,16 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>8810</t>
+          <t>8890</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>8532</t>
+          <t>7521</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="696">
@@ -10864,26 +10868,26 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>7521</t>
+          <t>8532</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>8890</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>8532</t>
+          <t>9214</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="698">
@@ -10894,11 +10898,11 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>9214</t>
+          <t>9219</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="699">
@@ -10909,26 +10913,26 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>9219</t>
+          <t>9220</t>
         </is>
       </c>
       <c r="C699" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9101</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>9220</t>
+          <t>7514</t>
         </is>
       </c>
       <c r="C700" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="701">
@@ -10939,37 +10943,37 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>7514</t>
+          <t>9231</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>9101</t>
+          <t>9102</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>9231</t>
+          <t>9232</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>9102</t>
+          <t>9103</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>9232</t>
+          <t>9233</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -10979,12 +10983,12 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>9103</t>
+          <t>9200</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>9233</t>
+          <t>9249</t>
         </is>
       </c>
       <c r="C704" t="n">
@@ -10994,12 +10998,12 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>9200</t>
+          <t>9311</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>9249</t>
+          <t>9241</t>
         </is>
       </c>
       <c r="C705" t="n">
@@ -11009,7 +11013,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>9311</t>
+          <t>9312</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -11024,7 +11028,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>9312</t>
+          <t>9319</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -11039,12 +11043,12 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>9319</t>
+          <t>9321</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>9241</t>
+          <t>9219</t>
         </is>
       </c>
       <c r="C708" t="n">
@@ -11054,7 +11058,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>9321</t>
+          <t>9329</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -11063,7 +11067,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="710">
@@ -11074,11 +11078,11 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>9219</t>
+          <t>9241</t>
         </is>
       </c>
       <c r="C710" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="711">
@@ -11089,37 +11093,37 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>9241</t>
+          <t>9249</t>
         </is>
       </c>
       <c r="C711" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>9329</t>
+          <t>9411</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>9249</t>
+          <t>9111</t>
         </is>
       </c>
       <c r="C712" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>9411</t>
+          <t>9412</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>9111</t>
+          <t>9112</t>
         </is>
       </c>
       <c r="C713" t="n">
@@ -11129,12 +11133,12 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>9412</t>
+          <t>9420</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>9112</t>
+          <t>9120</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -11144,12 +11148,12 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>9420</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>9120</t>
+          <t>9191</t>
         </is>
       </c>
       <c r="C715" t="n">
@@ -11159,12 +11163,12 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9492</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>9191</t>
+          <t>9192</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -11174,16 +11178,16 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>9492</t>
+          <t>9499</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>9192</t>
+          <t>0150</t>
         </is>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="718">
@@ -11194,11 +11198,11 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>0150</t>
+          <t>6599</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="719">
@@ -11209,41 +11213,41 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>6599</t>
+          <t>9199</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>9499</t>
+          <t>9511</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>9199</t>
+          <t>7250</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>9511</t>
+          <t>9512</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>7250</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="722">
@@ -11254,26 +11258,26 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>5260</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>9512</t>
+          <t>9521</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="C723" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="724">
@@ -11284,17 +11288,17 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>5260</t>
         </is>
       </c>
       <c r="C724" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>9521</t>
+          <t>9522</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -11303,13 +11307,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>9522</t>
+          <t>9523</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -11324,16 +11328,16 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>9523</t>
+          <t>9524</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>3610</t>
         </is>
       </c>
       <c r="C727" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="728">
@@ -11344,17 +11348,17 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>5260</t>
         </is>
       </c>
       <c r="C728" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>9529</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -11363,18 +11367,18 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>9529</t>
+          <t>9601</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>9301</t>
         </is>
       </c>
       <c r="C730" t="n">
@@ -11384,12 +11388,12 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>9601</t>
+          <t>9602</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>9301</t>
+          <t>9302</t>
         </is>
       </c>
       <c r="C731" t="n">
@@ -11399,12 +11403,12 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>9602</t>
+          <t>9603</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>9303</t>
         </is>
       </c>
       <c r="C732" t="n">
@@ -11414,12 +11418,12 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>9603</t>
+          <t>9609</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>9303</t>
+          <t>9309</t>
         </is>
       </c>
       <c r="C733" t="n">
@@ -11429,12 +11433,12 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>9609</t>
+          <t>9700</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>9309</t>
+          <t>9500</t>
         </is>
       </c>
       <c r="C734" t="n">
@@ -11444,12 +11448,12 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>9700</t>
+          <t>9810</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>9600</t>
         </is>
       </c>
       <c r="C735" t="n">
@@ -11459,12 +11463,12 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>9810</t>
+          <t>9820</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>9600</t>
+          <t>9700</t>
         </is>
       </c>
       <c r="C736" t="n">
@@ -11474,30 +11478,15 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>9820</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>9700</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="C737" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>9900</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>9900</t>
-        </is>
-      </c>
-      <c r="C738" t="n">
         <v>1</v>
       </c>
     </row>
